--- a/Fulton Hogan Civil/6103374/matrix_Caroline Springs Station Carpark.xlsx
+++ b/Fulton Hogan Civil/6103374/matrix_Caroline Springs Station Carpark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan Civil\6103374\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F489E4C-3FA7-4401-8DEA-8E92A5F2C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2EC4C-D455-4AE7-9EA9-065921D46EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="1110" windowWidth="28905" windowHeight="18450" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="9315" yWindow="675" windowWidth="28905" windowHeight="20010" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Tag 2</t>
   </si>
   <si>
-    <t>Overall Progress</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -53,6 +50,114 @@
   </si>
   <si>
     <t>Columns</t>
+  </si>
+  <si>
+    <t>Project Overview</t>
+  </si>
+  <si>
+    <t>1.1 Check for correct documentation</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date Completed:</t>
+  </si>
+  <si>
+    <t>Final Inspection</t>
+  </si>
+  <si>
+    <t>Print Name:</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>FHC-ITP-001 - Clearing &amp; Grubbing</t>
+  </si>
+  <si>
+    <t>FHC-ITP-002 - Stripping Topsoil &amp; Topsoil Placement</t>
+  </si>
+  <si>
+    <t>FHC-ITP-003 - Subgrade Preparation</t>
+  </si>
+  <si>
+    <t>FHC-ITP-004 - Type A Fill placement</t>
+  </si>
+  <si>
+    <t>FHC-ITP-005 - Class 2 Crushed Rock</t>
+  </si>
+  <si>
+    <t>FHC-ITP-006 - Class 3 Crushed Rock</t>
+  </si>
+  <si>
+    <t>FHC-ITP-008 - Stormwater Drainage</t>
+  </si>
+  <si>
+    <t>FHC-ITP-012 - Hot Mix Asphalt</t>
+  </si>
+  <si>
+    <t>FHC-ITP-013 - General Concrete Paving</t>
+  </si>
+  <si>
+    <t>FHC-ITP-014 - Subsurface Drainage</t>
+  </si>
+  <si>
+    <t>FHC-ITP-015 - Kerb and Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FHC-ITP-016 - Sign Installation </t>
+  </si>
+  <si>
+    <t>FHC-ITP-017 - Basin Construction</t>
+  </si>
+  <si>
+    <t>FHC-ITP-018 - Landscaping</t>
+  </si>
+  <si>
+    <t>FHC-ITP-019 - Linemarking</t>
+  </si>
+  <si>
+    <t>FHC-ITP-021 - Type B Placement</t>
+  </si>
+  <si>
+    <t>FHC-ITP-023 - Conduit, Pit &amp; OCS Installation (V-Line)</t>
+  </si>
+  <si>
+    <t>FHC-ITP-027 - Pile Footing Construction</t>
+  </si>
+  <si>
+    <t>FHC-ITP-028 - Chainwire Fence Installation</t>
+  </si>
+  <si>
+    <t>FHC-ITP-029 - Farm Fence Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FHC-ITP-030 - Energy Absorbing Bollard </t>
+  </si>
+  <si>
+    <t>Wombat Crossing Works</t>
+  </si>
+  <si>
+    <t>1.1 The current revision drawings/documents are being used including subcontractors copy.</t>
+  </si>
+  <si>
+    <t>1.1 - Check for correct documentation</t>
+  </si>
+  <si>
+    <t>1.1 Submission of Mix Design</t>
+  </si>
+  <si>
+    <t>1.1 - The current revision drawings/documents are being used including subcontractors copy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Check for Correct Documentation </t>
+  </si>
+  <si>
+    <t>DATE:</t>
   </si>
 </sst>
 </file>
@@ -913,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -949,27 +1054,408 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
